--- a/Contact Approval 1.xlsx
+++ b/Contact Approval 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008FA59-C8C2-4201-850D-0A90E63A3A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDA59AA-06C7-4979-BC25-C26F14A0A841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
